--- a/Formulario SII.xlsx
+++ b/Formulario SII.xlsx
@@ -1,38 +1,304 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafaa\Desktop\Pandas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0676F79-C385-452D-8A87-5457FA2D648F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Empresas" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Personas Naturales" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Empresas" sheetId="1" r:id="rId1"/>
+    <sheet name="Personas Naturales" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
+  <si>
+    <t>Rut</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Giro</t>
+  </si>
+  <si>
+    <t>Representante Legal</t>
+  </si>
+  <si>
+    <t>Fecha de constitucion</t>
+  </si>
+  <si>
+    <t>antiguedad</t>
+  </si>
+  <si>
+    <t>77418958-0</t>
+  </si>
+  <si>
+    <t>Industries Solutions</t>
+  </si>
+  <si>
+    <t>Alimentación</t>
+  </si>
+  <si>
+    <t>Carmen Garcia</t>
+  </si>
+  <si>
+    <t>26/4/2015</t>
+  </si>
+  <si>
+    <t>77963845-7</t>
+  </si>
+  <si>
+    <t>Tech Tech</t>
+  </si>
+  <si>
+    <t>Salud</t>
+  </si>
+  <si>
+    <t>Carmen Lopez</t>
+  </si>
+  <si>
+    <t>25/5/1998</t>
+  </si>
+  <si>
+    <t>77404239-6</t>
+  </si>
+  <si>
+    <t>Tech Products</t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>Pedro Fernandez</t>
+  </si>
+  <si>
+    <t>17/6/1997</t>
+  </si>
+  <si>
+    <t>77559121-6</t>
+  </si>
+  <si>
+    <t>Solutions Innovations</t>
+  </si>
+  <si>
+    <t>Maria Lopez</t>
+  </si>
+  <si>
+    <t>19/2/2005</t>
+  </si>
+  <si>
+    <t>77186723-4</t>
+  </si>
+  <si>
+    <t>Innovations Innovations</t>
+  </si>
+  <si>
+    <t>Juan Perez</t>
+  </si>
+  <si>
+    <t>25/10/2008</t>
+  </si>
+  <si>
+    <t>77459784-K</t>
+  </si>
+  <si>
+    <t>Industries Products</t>
+  </si>
+  <si>
+    <t>Carlos Gonzalez</t>
+  </si>
+  <si>
+    <t>6/3/1994</t>
+  </si>
+  <si>
+    <t>77373321-1</t>
+  </si>
+  <si>
+    <t>Tech Solutions</t>
+  </si>
+  <si>
+    <t>Finanzas</t>
+  </si>
+  <si>
+    <t>Andrea Lopez</t>
+  </si>
+  <si>
+    <t>8/8/1997</t>
+  </si>
+  <si>
+    <t>77589702-8</t>
+  </si>
+  <si>
+    <t>Enterprises Solutions</t>
+  </si>
+  <si>
+    <t>Textil</t>
+  </si>
+  <si>
+    <t>Roberto Gonzalez</t>
+  </si>
+  <si>
+    <t>11/8/1980</t>
+  </si>
+  <si>
+    <t>Segundo Nombre</t>
+  </si>
+  <si>
+    <t>Apellido Paterno</t>
+  </si>
+  <si>
+    <t>Apellido Materno</t>
+  </si>
+  <si>
+    <t>Fecha de Nacimiento</t>
+  </si>
+  <si>
+    <t>7033127-9</t>
+  </si>
+  <si>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>Rojas</t>
+  </si>
+  <si>
+    <t>14/12/1972</t>
+  </si>
+  <si>
+    <t>8932995-3</t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t>Isabel</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>Herrera</t>
+  </si>
+  <si>
+    <t>25/5/1981</t>
+  </si>
+  <si>
+    <t>8162501-K</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Guerrero</t>
+  </si>
+  <si>
+    <t>20/3/1975</t>
+  </si>
+  <si>
+    <t>5633710-4</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>Reyes</t>
+  </si>
+  <si>
+    <t>6/11/1965</t>
+  </si>
+  <si>
+    <t>15925438-0</t>
+  </si>
+  <si>
+    <t>Gabriela</t>
+  </si>
+  <si>
+    <t>Vargas</t>
+  </si>
+  <si>
+    <t>14/1/1980</t>
+  </si>
+  <si>
+    <t>9004125-K</t>
+  </si>
+  <si>
+    <t>Fernandez</t>
+  </si>
+  <si>
+    <t>9/3/1977</t>
+  </si>
+  <si>
+    <t>19002363-0</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>Mendoza</t>
+  </si>
+  <si>
+    <t>14/6/1996</t>
+  </si>
+  <si>
+    <t>4952485-6</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>12/1/1957</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,93 +313,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -421,49 +637,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Rut</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Giro</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Representante Legal</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha de constitucion</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>antiguedad</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -472,81 +816,201 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Rut</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Segundo Nombre</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Apellido Paterno</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Apellido Materno</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha de Nacimiento</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>7033127-9</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Daniela</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Miguel</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Martinez</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>14/12/1972</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Formulario SII.xlsx
+++ b/Formulario SII.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafaa\Desktop\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0676F79-C385-452D-8A87-5457FA2D648F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFA87EB-CD5A-4936-83B2-3A99D213BB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Empresas" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
   <si>
     <t>Rut</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Fecha de constitucion</t>
-  </si>
-  <si>
-    <t>antiguedad</t>
   </si>
   <si>
     <t>77418958-0</t>
@@ -640,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,144 +667,142 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>40</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -819,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -841,176 +836,176 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>49</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>55</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>56</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>57</v>
-      </c>
-      <c r="F3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
         <v>59</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
         <v>60</v>
       </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>61</v>
-      </c>
-      <c r="F4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
         <v>63</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>64</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>65</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>66</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>67</v>
-      </c>
-      <c r="F5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
         <v>69</v>
       </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
         <v>70</v>
       </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>71</v>
-      </c>
-      <c r="F6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
         <v>73</v>
       </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
         <v>74</v>
-      </c>
-      <c r="E7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
         <v>76</v>
       </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>77</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>78</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>79</v>
-      </c>
-      <c r="F8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
         <v>81</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
         <v>82</v>
       </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" t="s">
         <v>83</v>
-      </c>
-      <c r="E9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Formulario SII.xlsx
+++ b/Formulario SII.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafaa\Desktop\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFA87EB-CD5A-4936-83B2-3A99D213BB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3733A3E-F4AD-4090-B6E9-B4E2C6CC15FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -328,9 +328,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -638,7 +641,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +670,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
